--- a/Python MP/Baseline/MP_InventorySpecifications.xlsx
+++ b/Python MP/Baseline/MP_InventorySpecifications.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>HasMaxLevel</t>
   </si>
@@ -107,6 +107,45 @@
   </si>
   <si>
     <t>WHITE BEANS_GCMF [Non GMO]</t>
+  </si>
+  <si>
+    <t>VENEZIA (ITALY)</t>
+  </si>
+  <si>
+    <t>MOUNDOU (CHAD)</t>
+  </si>
+  <si>
+    <t>BELAWAN (INDONESIA)</t>
+  </si>
+  <si>
+    <t>LE HAVRE (FRANCE)</t>
+  </si>
+  <si>
+    <t>DURBAN (SOUTH AFRICA)</t>
+  </si>
+  <si>
+    <t>KANO (NIGERIA)</t>
+  </si>
+  <si>
+    <t>NGAOUNDERE (CAMEROON)</t>
+  </si>
+  <si>
+    <t>SURABAYA (INDONESIA)</t>
+  </si>
+  <si>
+    <t>ZINDER (NIGER)</t>
+  </si>
+  <si>
+    <t>MERSIN (TURKEY)</t>
+  </si>
+  <si>
+    <t>ODESSA (UKRAINE)</t>
+  </si>
+  <si>
+    <t>ANTWERP (BELGIUM)</t>
+  </si>
+  <si>
+    <t>COTONOU (BENIN)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,6 +1515,1482 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K41" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K42" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K47" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
